--- a/log/PSOELM_extracted_result/PSOELM_slp41_result/PSOELM_slp41_result.xlsx
+++ b/log/PSOELM_extracted_result/PSOELM_slp41_result/PSOELM_slp41_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\PSOELM_slp41_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fennia\Documents\MATLAB\thesis\log\PSOELM_extracted_result\PSOELM_slp41_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,9 +84,6 @@
     <t>1 6 11 12 17</t>
   </si>
   <si>
-    <t>best experiment</t>
-  </si>
-  <si>
     <t>6 7</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>2 4 5 6 8 10 11 13 14 15 18</t>
+  </si>
+  <si>
+    <t>BEST EXPERIMENT</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1050,7 @@
         <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
         <v>547</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1385,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>136</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1605,10 +1605,10 @@
         <v>381</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,7 +1723,7 @@
         <v>548</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1963,7 +1963,7 @@
         <v>548</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2023,10 +2023,10 @@
         <v>485</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2146,7 +2146,7 @@
         <v>548</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2221,7 +2221,7 @@
         <v>548</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2241,7 +2241,7 @@
         <v>444</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2261,7 +2261,7 @@
         <v>548</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2281,7 +2281,7 @@
         <v>548</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2301,7 +2301,7 @@
         <v>524</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2321,7 +2321,7 @@
         <v>247</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
         <v>548</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2361,7 +2361,7 @@
         <v>272</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2381,7 +2381,7 @@
         <v>548</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2401,10 +2401,10 @@
         <v>399</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2424,7 +2424,7 @@
         <v>453</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2444,7 +2444,7 @@
         <v>189</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>180</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2484,7 +2484,7 @@
         <v>548</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>186</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2524,7 +2524,7 @@
         <v>372</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
         <v>548</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2564,7 +2564,7 @@
         <v>548</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>187</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2604,7 +2604,7 @@
         <v>251</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>548</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2644,7 +2644,7 @@
         <v>548</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>373</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2684,7 +2684,7 @@
         <v>522</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
